--- a/Assets/_Excel/enemy.xlsx
+++ b/Assets/_Excel/enemy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Cards\Card-game-demo\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B1389-C38F-4C9C-A8B4-2FFFD619611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E783EE3-4FE8-4B3D-8BB3-654D04F2F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1785" windowWidth="27525" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -68,23 +68,29 @@
   <si>
     <t>Model/CheChe</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿湿波</t>
+  </si>
+  <si>
+    <t>Model/Boss1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -92,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -504,7 +510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -524,7 +530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -542,6 +548,26 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,7 +597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Excel/enemy.xlsx
+++ b/Assets/_Excel/enemy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Cards\Card-game-demo\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Card\Card-game_test\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E783EE3-4FE8-4B3D-8BB3-654D04F2F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A2CE5-2D6F-4A9A-A6AC-FC05A9E61FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1785" windowWidth="27525" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3090" windowWidth="18850" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -66,14 +66,25 @@
     <t>乌龟</t>
   </si>
   <si>
+    <t>阿湿波</t>
+  </si>
+  <si>
+    <t>Model/Boss1</t>
+  </si>
+  <si>
+    <t>Model/Qiuqiu</t>
+  </si>
+  <si>
     <t>Model/CheChe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿湿波</t>
-  </si>
-  <si>
-    <t>Model/Boss1</t>
+  </si>
+  <si>
+    <t>Model/mama</t>
+  </si>
+  <si>
+    <t>OCTOCT</t>
+  </si>
+  <si>
+    <t>Model/Boss2</t>
   </si>
 </sst>
 </file>
@@ -135,7 +146,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -527,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -555,7 +566,7 @@
         <v>20001</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -567,7 +578,27 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +614,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,7 +628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
